--- a/Playground - XLOOKUP.xlsx
+++ b/Playground - XLOOKUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF7BB05-6764-40D8-86AB-D2E300C58D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7ADBC9-342C-46DE-A56B-638060EE8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF05A7-3704-402E-8684-C856D6F82881}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A7D64C-38C9-4586-AD37-471BFBE38708}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,6 +1666,10 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="B4" t="str">
+        <f>_xlfn.XLOOKUP("*"&amp;A4, H:H, O:O, "Not Found", 2)</f>
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -1704,6 +1708,10 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
+      <c r="B5" t="str">
+        <f>_xlfn.XLOOKUP("*"&amp;A5&amp;"*", H:H, O:O, "Not Found", 2)</f>
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -1741,6 +1749,10 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.XLOOKUP("*"&amp;A6&amp;"*", H:H, O:O, "Not Found", 2)</f>
+        <v>Kevin.Malone@DunderMifflin.com</v>
       </c>
       <c r="E6">
         <v>1005</v>

--- a/Playground - XLOOKUP.xlsx
+++ b/Playground - XLOOKUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7ADBC9-342C-46DE-A56B-638060EE8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE5E24-B17D-48DE-86D5-1117B6EB6E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="92">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A7D64C-38C9-4586-AD37-471BFBE38708}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2347,7 +2347,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,6 +2400,10 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
+      <c r="B2">
+        <f>_xlfn.XLOOKUP(I1,H1:S1,H2:S2)</f>
+        <v>310</v>
+      </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
@@ -2444,6 +2448,10 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
+      <c r="B3">
+        <f>_xlfn.XLOOKUP(M1,H1:S1,H3:S3)</f>
+        <v>71</v>
+      </c>
       <c r="G3" t="s">
         <v>71</v>
       </c>
@@ -2487,6 +2495,10 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.XLOOKUP(O1,H1:S1,H4:S4)</f>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
         <v>84</v>
@@ -2535,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,6 +2739,19 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
+      </c>
+      <c r="B7">
+        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H2:S2):_xlfn.XLOOKUP(J1,H1:S1,H2:S2))</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H4:S4):_xlfn.XLOOKUP(J1,H1:S1,H4:S4))</f>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Playground - XLOOKUP.xlsx
+++ b/Playground - XLOOKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE5E24-B17D-48DE-86D5-1117B6EB6E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27CE5F9-46E4-4847-9960-8669573F34FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
@@ -2550,7 +2550,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
